--- a/mbs-perturbation/chatty/welm/nearmiss/chatty_welm_rbf_nearmiss_results.xlsx
+++ b/mbs-perturbation/chatty/welm/nearmiss/chatty_welm_rbf_nearmiss_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5625</v>
+        <v>0.48</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4375</v>
+        <v>0.52</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
